--- a/Data/mariculture_shellfish_province.xlsx
+++ b/Data/mariculture_shellfish_province.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iwen\SFG\China\China Data Spreadsheets (by data)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="5910" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="55" r:id="rId1"/>
@@ -45,17 +40,13 @@
     <sheet name="1985" sheetId="41" r:id="rId31"/>
     <sheet name="1984" sheetId="42" r:id="rId32"/>
     <sheet name="1983" sheetId="44" r:id="rId33"/>
-    <sheet name="1982" sheetId="45" r:id="rId34"/>
-    <sheet name="1981" sheetId="46" r:id="rId35"/>
-    <sheet name="1980" sheetId="47" r:id="rId36"/>
-    <sheet name="1979" sheetId="48" r:id="rId37"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="1135">
   <si>
     <t/>
   </si>
@@ -3457,6 +3448,9 @@
   </si>
   <si>
     <t>mussel</t>
+  </si>
+  <si>
+    <t>Province</t>
   </si>
 </sst>
 </file>
@@ -3828,7 +3822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3839,12 +3833,15 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -3876,12 +3873,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>37590</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3933,12 +3930,12 @@
         <v>49061</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3967,7 +3964,7 @@
         <v>71352</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3999,7 +3996,7 @@
         <v>256527</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4031,7 +4028,7 @@
         <v>249248</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4063,7 +4060,7 @@
         <v>156942</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4098,7 +4095,7 @@
         <v>9354</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4127,7 +4124,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4162,15 +4159,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -4203,7 +4200,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4238,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4273,7 +4270,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4308,7 +4305,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4343,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4378,7 +4375,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4413,7 +4410,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4448,7 +4445,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4483,7 +4480,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4518,7 +4515,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4553,7 +4550,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4597,15 +4594,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -4638,7 +4635,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4673,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4708,7 +4705,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4743,7 +4740,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4778,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4813,7 +4810,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4848,7 +4845,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4883,7 +4880,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4918,7 +4915,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4953,7 +4950,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5032,15 +5029,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -5073,7 +5070,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5192,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5295,7 +5292,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5330,7 +5327,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5400,7 +5397,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5444,15 +5441,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -5479,7 +5476,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5508,7 +5505,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5537,7 +5534,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5566,7 +5563,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5595,7 +5592,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5624,7 +5621,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5653,7 +5650,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5682,7 +5679,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5711,7 +5708,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5740,7 +5737,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5769,7 +5766,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5807,13 +5804,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6167,15 +6167,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -6202,7 +6202,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6500,15 +6500,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -6535,7 +6535,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6824,13 +6824,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6885,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7059,7 +7062,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7117,7 +7120,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7184,15 +7187,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -7219,7 +7222,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7322,7 +7325,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7409,7 +7412,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7499,15 +7502,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -7534,7 +7537,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7571,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7623,7 +7626,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7721,7 +7724,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7840,13 +7843,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -7878,12 +7884,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7909,7 +7915,7 @@
         <v>36913</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>50848</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7944,7 +7950,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7976,7 +7982,7 @@
         <v>83836</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8008,7 +8014,7 @@
         <v>259088</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>234856</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8072,7 +8078,7 @@
         <v>147614</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>9370</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8136,7 +8142,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8165,15 +8171,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -8200,7 +8206,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -8220,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8240,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8295,7 +8301,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8312,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8332,7 +8338,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8390,7 +8396,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8419,7 +8425,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8448,7 +8454,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8477,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8512,13 +8518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -8541,7 +8550,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -8567,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8593,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8619,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8645,7 +8654,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8671,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8697,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8723,7 +8732,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8749,7 +8758,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8775,7 +8784,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8801,7 +8810,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8827,7 +8836,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8862,13 +8871,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -8891,7 +8903,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -8911,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8931,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8957,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -8977,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -8997,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9023,7 +9035,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -9043,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -9063,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -9083,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -9109,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -9135,7 +9147,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -9155,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -9181,7 +9193,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -9201,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -9227,7 +9239,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -9247,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -9267,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -9287,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -9313,7 +9325,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -9339,7 +9351,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -9365,7 +9377,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -9385,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -9405,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -9425,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -9445,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>799</v>
       </c>
@@ -9465,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>800</v>
       </c>
@@ -9485,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>801</v>
       </c>
@@ -9505,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>802</v>
       </c>
@@ -9525,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -9554,13 +9566,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -9583,7 +9598,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -9609,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9635,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9661,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9687,7 +9702,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -9713,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9739,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9765,7 +9780,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -9791,7 +9806,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9817,7 +9832,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9843,7 +9858,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9869,7 +9884,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9895,7 +9910,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>0</v>
       </c>
@@ -9909,13 +9924,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -9938,7 +9956,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -9964,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9990,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10016,7 +10034,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -10042,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -10068,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -10094,7 +10112,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -10120,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -10146,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -10172,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -10198,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -10224,7 +10242,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -10250,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -10276,7 +10294,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -10302,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10328,7 +10346,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -10354,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -10380,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -10406,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -10432,7 +10450,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -10458,7 +10476,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -10484,7 +10502,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -10510,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -10536,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -10562,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>799</v>
       </c>
@@ -10588,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>800</v>
       </c>
@@ -10614,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>801</v>
       </c>
@@ -10640,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>802</v>
       </c>
@@ -10654,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>803</v>
       </c>
@@ -10677,13 +10695,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -10706,7 +10727,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -10732,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10758,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10784,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -10810,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -10836,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -10862,7 +10883,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -10888,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -10914,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -10940,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -10966,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -10992,7 +11013,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -11018,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11044,7 +11065,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -11070,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11096,7 +11117,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -11122,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -11148,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -11174,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -11200,7 +11221,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -11226,7 +11247,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -11252,7 +11273,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -11278,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -11304,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -11330,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -11356,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>799</v>
       </c>
@@ -11382,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>800</v>
       </c>
@@ -11408,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>801</v>
       </c>
@@ -11434,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>802</v>
       </c>
@@ -11460,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -11495,13 +11516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -11524,17 +11548,17 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11551,17 +11575,17 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11578,22 +11602,22 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -11604,7 +11628,7 @@
         <v>14065</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -11627,12 +11651,12 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11658,12 +11682,12 @@
         <v>54919</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11689,22 +11713,22 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -11724,7 +11748,7 @@
         <v>14454</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -11735,7 +11759,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -11749,42 +11773,42 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>803</v>
       </c>
@@ -11798,13 +11822,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -11827,17 +11854,17 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11854,17 +11881,17 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11881,22 +11908,22 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -11907,7 +11934,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -11933,12 +11960,12 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11964,12 +11991,12 @@
         <v>52773</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11995,22 +12022,22 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -12027,7 +12054,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -12041,7 +12068,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -12055,47 +12082,47 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1132</v>
       </c>
@@ -12109,13 +12136,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -12138,7 +12168,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -12167,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12196,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12225,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -12254,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -12283,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -12309,7 +12339,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -12338,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -12367,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -12396,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -12425,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -12451,7 +12481,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -12480,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -12506,7 +12536,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -12532,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -12558,7 +12588,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -12587,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -12616,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -12645,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -12671,7 +12701,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -12697,7 +12727,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -12723,7 +12753,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -12752,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -12781,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -12810,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -12839,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>799</v>
       </c>
@@ -12868,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>800</v>
       </c>
@@ -12897,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>801</v>
       </c>
@@ -12926,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>802</v>
       </c>
@@ -12955,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -12993,13 +13023,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="B1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -13022,7 +13055,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -13045,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13068,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13094,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -13117,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -13140,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -13166,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -13189,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>982</v>
       </c>
@@ -13212,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -13235,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -13261,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -13287,7 +13320,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -13310,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -13336,7 +13369,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -13359,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -13385,7 +13418,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -13408,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -13431,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -13454,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -13480,7 +13513,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -13506,7 +13539,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>795</v>
       </c>
@@ -13529,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>796</v>
       </c>
@@ -13552,7 +13585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>797</v>
       </c>
@@ -13575,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>798</v>
       </c>
@@ -13598,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>799</v>
       </c>
@@ -13621,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>800</v>
       </c>
@@ -13644,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>801</v>
       </c>
@@ -13676,13 +13709,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -13714,12 +13750,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13742,7 +13778,7 @@
         <v>35158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13771,12 +13807,12 @@
         <v>28752</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13808,7 +13844,7 @@
         <v>87629</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13840,7 +13876,7 @@
         <v>223450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13872,7 +13908,7 @@
         <v>213934</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -13904,7 +13940,7 @@
         <v>144982</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -13939,7 +13975,7 @@
         <v>20863</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -13965,7 +14001,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14000,13 +14036,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -14029,7 +14068,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -14055,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14081,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14107,7 +14146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -14133,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -14159,7 +14198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -14185,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -14211,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>982</v>
       </c>
@@ -14237,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -14263,7 +14302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -14289,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -14315,7 +14354,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -14341,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -14367,7 +14406,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -14393,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -14419,7 +14458,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -14445,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -14471,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -14497,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -14523,7 +14562,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -14549,7 +14588,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>795</v>
       </c>
@@ -14575,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>796</v>
       </c>
@@ -14601,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>797</v>
       </c>
@@ -14627,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>798</v>
       </c>
@@ -14653,7 +14692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>799</v>
       </c>
@@ -14679,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>800</v>
       </c>
@@ -14705,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>801</v>
       </c>
@@ -14731,7 +14770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>802</v>
       </c>
@@ -14757,7 +14796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>803</v>
       </c>
@@ -14792,16 +14831,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.83984375" style="2"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -14824,7 +14866,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -14838,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14852,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14872,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14892,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14906,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -14923,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -14946,7 +14988,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -14972,7 +15014,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -14996,7 +15038,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -15016,7 +15058,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -15042,15 +15084,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -15074,7 +15116,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15100,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15126,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15152,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15178,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15204,7 +15246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -15230,7 +15272,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15256,7 +15298,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -15282,7 +15324,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -15308,7 +15350,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -15343,13 +15385,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -15372,7 +15417,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -15386,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15400,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -15420,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -15434,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -15448,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -15471,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -15485,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -15499,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -15513,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -15530,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -15553,7 +15598,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -15567,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -15593,7 +15638,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -15607,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -15630,7 +15675,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -15644,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -15658,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -15672,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -15689,7 +15734,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -15706,7 +15751,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>795</v>
       </c>
@@ -15720,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1108</v>
       </c>
@@ -15734,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -15748,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -15762,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -15776,7 +15821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>799</v>
       </c>
@@ -15790,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>800</v>
       </c>
@@ -15804,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>801</v>
       </c>
@@ -15818,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>802</v>
       </c>
@@ -15832,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -15847,54 +15892,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15903,13 +15900,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -15941,12 +15941,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>29753</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>24854</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>705550</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>87717</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>218377</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>205899</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>159409</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>23105</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -16227,13 +16227,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -16265,12 +16268,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16293,7 +16296,7 @@
         <v>27375</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16324,12 +16327,12 @@
         <v>28047</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16360,7 +16363,7 @@
         <v>92052</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -16393,7 +16396,7 @@
         <v>218205</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16428,7 +16431,7 @@
         <v>204878</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -16461,7 +16464,7 @@
         <v>174551</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -16496,7 +16499,7 @@
         <v>25991</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16524,7 +16527,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -16559,13 +16562,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -16597,7 +16603,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16605,7 +16611,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16634,7 +16640,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16663,12 +16669,12 @@
         <v>26479</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16697,7 +16703,7 @@
         <v>89315</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -16729,7 +16735,7 @@
         <v>228454</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16764,7 +16770,7 @@
         <v>193708</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -16796,7 +16802,7 @@
         <v>150442</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -16831,7 +16837,7 @@
         <v>24934</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16860,7 +16866,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -16895,13 +16901,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
@@ -16933,12 +16942,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16964,7 +16973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16993,12 +17002,12 @@
         <v>22441</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17024,7 +17033,7 @@
         <v>87835</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17056,7 +17065,7 @@
         <v>215439</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17088,7 +17097,7 @@
         <v>180136</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17120,7 +17129,7 @@
         <v>149925</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17155,7 +17164,7 @@
         <v>26957</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17184,7 +17193,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17220,15 +17229,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -17261,7 +17270,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17296,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17331,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17366,7 +17375,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17401,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17436,7 +17445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17471,7 +17480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17506,7 +17515,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17541,7 +17550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17576,7 +17585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17611,7 +17620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17655,15 +17664,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -17696,7 +17705,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17731,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17766,7 +17775,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17801,7 +17810,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17836,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17871,7 +17880,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17906,7 +17915,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17941,7 +17950,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17976,7 +17985,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -18011,7 +18020,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -18046,7 +18055,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>

--- a/Data/mariculture_shellfish_province.xlsx
+++ b/Data/mariculture_shellfish_province.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AquaFish\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="5910" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="5916" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="55" r:id="rId1"/>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="1134">
   <si>
     <t/>
   </si>
@@ -3436,9 +3441,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>commn orient clam</t>
   </si>
   <si>
     <t>other shellfish</t>
@@ -3456,7 +3458,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3822,7 +3824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3833,14 +3835,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -3861,7 +3863,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -3873,12 +3875,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>37590</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3930,12 +3932,12 @@
         <v>49061</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3964,7 +3966,7 @@
         <v>71352</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3996,7 +3998,7 @@
         <v>256527</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>249248</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>156942</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4095,7 +4097,7 @@
         <v>9354</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4124,7 +4126,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4160,14 +4162,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -4188,7 +4190,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -4200,7 +4202,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4235,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4270,7 +4272,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4305,7 +4307,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4375,7 +4377,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4410,7 +4412,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4595,14 +4597,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -4623,7 +4625,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -4635,7 +4637,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4670,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4740,7 +4742,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4845,7 +4847,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4880,7 +4882,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4950,7 +4952,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5030,14 +5032,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -5058,7 +5060,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -5070,7 +5072,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5257,7 +5259,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5292,7 +5294,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5397,7 +5399,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5442,14 +5444,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -5470,13 +5472,13 @@
         <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5592,7 +5594,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5737,7 +5739,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5805,14 +5807,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -5833,13 +5835,13 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5868,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5897,7 +5899,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5926,7 +5928,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5984,7 +5986,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6013,7 +6015,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6100,7 +6102,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6168,14 +6170,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -6196,13 +6198,13 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6277,7 +6279,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6294,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6375,7 +6377,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6404,7 +6406,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6433,7 +6435,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6462,7 +6464,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6501,14 +6503,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -6529,13 +6531,13 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6552,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6604,7 +6606,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6644,7 +6646,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6673,7 +6675,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6731,7 +6733,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6760,7 +6762,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6825,14 +6827,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -6853,13 +6855,13 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6888,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6917,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6946,7 +6948,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7004,7 +7006,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7149,7 +7151,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7188,14 +7190,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -7216,13 +7218,13 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7236,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7259,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7288,7 +7290,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7302,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7354,7 +7356,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7412,7 +7414,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7441,7 +7443,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7503,14 +7505,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -7531,13 +7533,13 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7574,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7597,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7626,7 +7628,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7666,7 +7668,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7753,7 +7755,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7782,7 +7784,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7844,14 +7846,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -7872,7 +7874,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -7884,12 +7886,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>36913</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>50848</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7950,7 +7952,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>83836</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8014,7 +8016,7 @@
         <v>259088</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8046,7 +8048,7 @@
         <v>234856</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8078,7 +8080,7 @@
         <v>147614</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>9370</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8142,7 +8144,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8172,14 +8174,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -8200,13 +8202,13 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8272,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8318,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8338,7 +8340,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8367,7 +8369,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8425,7 +8427,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8483,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8519,14 +8521,14 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -8547,10 +8549,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -8576,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8654,7 +8656,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8680,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8706,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8732,7 +8734,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8758,7 +8760,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8784,7 +8786,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8810,7 +8812,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8836,7 +8838,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8872,14 +8874,14 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -8900,10 +8902,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -8923,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8969,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -8989,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9035,7 +9037,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -9055,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -9095,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -9147,7 +9149,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -9193,7 +9195,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -9213,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -9239,7 +9241,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -9259,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -9325,7 +9327,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -9377,7 +9379,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -9397,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -9437,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -9457,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>799</v>
       </c>
@@ -9477,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>800</v>
       </c>
@@ -9497,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>801</v>
       </c>
@@ -9517,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>802</v>
       </c>
@@ -9537,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -9567,14 +9569,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -9595,10 +9597,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -9624,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -9728,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9754,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9780,7 +9782,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -9806,7 +9808,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9832,7 +9834,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9884,7 +9886,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9910,7 +9912,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>0</v>
       </c>
@@ -9925,14 +9927,14 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -9953,10 +9955,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -9982,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10034,7 +10036,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -10060,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -10112,7 +10114,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -10138,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -10164,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -10190,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -10216,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -10268,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -10294,7 +10296,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10346,7 +10348,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -10398,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -10424,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -10450,7 +10452,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -10476,7 +10478,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -10528,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -10554,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -10580,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>799</v>
       </c>
@@ -10606,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>800</v>
       </c>
@@ -10632,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>801</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>802</v>
       </c>
@@ -10672,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>803</v>
       </c>
@@ -10696,14 +10698,14 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -10724,10 +10726,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -10753,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10779,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10805,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -10831,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -10857,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -10883,7 +10885,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -10909,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -10961,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -10987,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -11039,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11065,7 +11067,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11117,7 +11119,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -11143,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -11195,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -11247,7 +11249,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -11273,7 +11275,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -11299,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -11325,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -11351,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -11377,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>799</v>
       </c>
@@ -11403,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>800</v>
       </c>
@@ -11429,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>801</v>
       </c>
@@ -11455,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>802</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -11517,14 +11519,14 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -11545,20 +11547,20 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11575,17 +11577,17 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11602,22 +11604,22 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -11628,7 +11630,7 @@
         <v>14065</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -11651,12 +11653,12 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11682,12 +11684,12 @@
         <v>54919</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11713,22 +11715,22 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -11748,7 +11750,7 @@
         <v>14454</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -11759,7 +11761,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -11773,42 +11775,42 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>803</v>
       </c>
@@ -11823,14 +11825,14 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -11851,20 +11853,20 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11881,17 +11883,17 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11908,22 +11910,22 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -11934,7 +11936,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -11960,12 +11962,12 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11991,12 +11993,12 @@
         <v>52773</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -12022,22 +12024,22 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -12054,7 +12056,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -12082,49 +12084,49 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -12137,14 +12139,14 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -12165,10 +12167,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -12197,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12226,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -12284,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -12313,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -12339,7 +12341,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -12368,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -12397,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -12455,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -12481,7 +12483,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -12510,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -12536,7 +12538,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -12562,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -12588,7 +12590,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -12617,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -12646,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -12675,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -12727,7 +12729,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -12753,7 +12755,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -12782,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -12811,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -12840,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -12869,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>799</v>
       </c>
@@ -12898,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>800</v>
       </c>
@@ -12927,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>801</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>802</v>
       </c>
@@ -12985,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -13024,20 +13026,20 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
       <c r="C1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D1" t="s">
         <v>65</v>
@@ -13052,10 +13054,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -13078,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13101,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13127,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -13150,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -13173,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -13199,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -13222,7 +13224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>982</v>
       </c>
@@ -13245,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -13268,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -13294,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -13320,7 +13322,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -13343,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -13369,7 +13371,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -13418,7 +13420,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -13441,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -13464,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -13487,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -13513,7 +13515,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -13539,7 +13541,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>795</v>
       </c>
@@ -13562,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>796</v>
       </c>
@@ -13585,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>797</v>
       </c>
@@ -13608,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>798</v>
       </c>
@@ -13631,7 +13633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>799</v>
       </c>
@@ -13654,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>800</v>
       </c>
@@ -13677,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>801</v>
       </c>
@@ -13710,14 +13712,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -13738,7 +13740,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -13750,12 +13752,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13778,7 +13780,7 @@
         <v>35158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13807,12 +13809,12 @@
         <v>28752</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13844,7 +13846,7 @@
         <v>87629</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13876,7 +13878,7 @@
         <v>223450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13908,7 +13910,7 @@
         <v>213934</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -13940,7 +13942,7 @@
         <v>144982</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -13975,7 +13977,7 @@
         <v>20863</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14001,7 +14003,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14037,20 +14039,20 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
       </c>
       <c r="C1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D1" t="s">
         <v>65</v>
@@ -14065,10 +14067,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -14094,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14120,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14146,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -14172,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -14198,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -14224,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -14250,7 +14252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>982</v>
       </c>
@@ -14276,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -14302,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -14328,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -14354,7 +14356,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -14380,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -14406,7 +14408,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -14432,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -14458,7 +14460,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -14484,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -14510,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -14536,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -14562,7 +14564,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -14588,7 +14590,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>795</v>
       </c>
@@ -14614,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>796</v>
       </c>
@@ -14640,7 +14642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>797</v>
       </c>
@@ -14666,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>798</v>
       </c>
@@ -14692,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>799</v>
       </c>
@@ -14718,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>800</v>
       </c>
@@ -14744,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>801</v>
       </c>
@@ -14770,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>802</v>
       </c>
@@ -14796,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>803</v>
       </c>
@@ -14832,17 +14834,17 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -14863,10 +14865,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -14880,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14894,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14914,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14934,7 +14936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14948,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -14965,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -14988,7 +14990,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -15014,7 +15016,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -15038,7 +15040,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -15058,7 +15060,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -15085,14 +15087,14 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -15113,10 +15115,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15142,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15168,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15194,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15220,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15246,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -15272,7 +15274,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15298,7 +15300,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -15324,7 +15326,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -15350,7 +15352,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -15386,14 +15388,14 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -15414,10 +15416,10 @@
         <v>1123</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -15431,7 +15433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15445,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -15465,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -15479,7 +15481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -15493,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -15516,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -15530,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -15544,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -15558,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -15575,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -15598,7 +15600,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>790</v>
       </c>
@@ -15612,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -15638,7 +15640,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>791</v>
       </c>
@@ -15652,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -15675,7 +15677,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>792</v>
       </c>
@@ -15689,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>793</v>
       </c>
@@ -15703,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -15717,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -15734,7 +15736,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>795</v>
       </c>
@@ -15765,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1108</v>
       </c>
@@ -15779,7 +15781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -15793,7 +15795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -15821,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>799</v>
       </c>
@@ -15835,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>800</v>
       </c>
@@ -15849,7 +15851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>801</v>
       </c>
@@ -15863,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>802</v>
       </c>
@@ -15877,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -15901,14 +15903,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -15929,7 +15931,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -15941,12 +15943,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15972,7 +15974,7 @@
         <v>29753</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16001,7 +16003,7 @@
         <v>24854</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16009,7 +16011,7 @@
         <v>705550</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16035,7 +16037,7 @@
         <v>87717</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -16064,7 +16066,7 @@
         <v>218377</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16096,7 +16098,7 @@
         <v>205899</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -16128,7 +16130,7 @@
         <v>159409</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -16163,7 +16165,7 @@
         <v>23105</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16192,7 +16194,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -16228,14 +16230,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -16256,7 +16258,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -16268,12 +16270,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16296,7 +16298,7 @@
         <v>27375</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16327,12 +16329,12 @@
         <v>28047</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16363,7 +16365,7 @@
         <v>92052</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -16396,7 +16398,7 @@
         <v>218205</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16431,7 +16433,7 @@
         <v>204878</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -16464,7 +16466,7 @@
         <v>174551</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -16499,7 +16501,7 @@
         <v>25991</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16527,7 +16529,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -16563,14 +16565,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -16591,7 +16593,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -16603,7 +16605,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16611,7 +16613,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16640,7 +16642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16669,12 +16671,12 @@
         <v>26479</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16703,7 +16705,7 @@
         <v>89315</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -16735,7 +16737,7 @@
         <v>228454</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16770,7 +16772,7 @@
         <v>193708</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -16802,7 +16804,7 @@
         <v>150442</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -16837,7 +16839,7 @@
         <v>24934</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16866,7 +16868,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -16902,14 +16904,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -16930,7 +16932,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -16942,12 +16944,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16973,7 +16975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17002,12 +17004,12 @@
         <v>22441</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17033,7 +17035,7 @@
         <v>87835</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17065,7 +17067,7 @@
         <v>215439</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17097,7 +17099,7 @@
         <v>180136</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17129,7 +17131,7 @@
         <v>149925</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17164,7 +17166,7 @@
         <v>26957</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17193,7 +17195,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17230,14 +17232,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -17258,7 +17260,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -17270,7 +17272,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17305,7 +17307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17340,7 +17342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17375,7 +17377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17410,7 +17412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17445,7 +17447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17480,7 +17482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17515,7 +17517,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17550,7 +17552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17585,7 +17587,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17620,7 +17622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17665,14 +17667,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1" t="s">
         <v>1127</v>
@@ -17693,7 +17695,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -17705,7 +17707,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17740,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17775,7 +17777,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17810,7 +17812,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17845,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17880,7 +17882,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17915,7 +17917,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17950,7 +17952,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17985,7 +17987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -18020,7 +18022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -18055,7 +18057,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>

--- a/Data/mariculture_shellfish_province.xlsx
+++ b/Data/mariculture_shellfish_province.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="5916" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="5916" firstSheet="18" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="55" r:id="rId1"/>
@@ -3834,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3863,7 +3863,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -4161,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4190,7 +4190,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -4596,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4625,7 +4625,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -5031,8 +5031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5060,7 +5060,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -5443,8 +5443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5806,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5829,7 +5829,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -6169,8 +6169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6192,7 +6192,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -6502,8 +6502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6525,7 +6525,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -6826,8 +6826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6849,7 +6849,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -7189,8 +7189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7212,7 +7212,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -7504,8 +7504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7527,7 +7527,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -7845,8 +7845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7874,7 +7874,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -8173,8 +8173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8196,7 +8196,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -8520,8 +8520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8543,7 +8543,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -8873,8 +8873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8896,7 +8896,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -9568,8 +9568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9591,7 +9591,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -9926,8 +9926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9949,7 +9949,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -10697,8 +10697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10720,7 +10720,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -11518,8 +11518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11541,7 +11541,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -11824,8 +11824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11847,7 +11847,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -12138,8 +12138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12161,7 +12161,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -13025,8 +13025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13048,7 +13048,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -13711,8 +13711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13740,7 +13740,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -14038,8 +14038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14061,7 +14061,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -14833,8 +14833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14859,7 +14859,7 @@
         <v>1126</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -15086,8 +15086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15109,7 +15109,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -15388,7 +15388,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15410,7 +15410,7 @@
         <v>1126</v>
       </c>
       <c r="F1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G1" t="s">
         <v>1123</v>
@@ -15902,8 +15902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15931,7 +15931,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -16229,8 +16229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16258,7 +16258,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -16564,8 +16564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16593,7 +16593,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -16903,8 +16903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16932,7 +16932,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -17231,8 +17231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17260,7 +17260,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
@@ -17666,8 +17666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17695,7 +17695,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
